--- a/contrib/bwilks/benchmarking/Graphs.xlsx
+++ b/contrib/bwilks/benchmarking/Graphs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\helix\contrib\bwilks\benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E1AE0FD-FF4C-4CF1-9483-7D77D4A168D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93A1800-8E83-456E-8A7D-B09674067996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{365CDFAE-76A7-4791-980B-883E4EF962AE}"/>
   </bookViews>
@@ -1316,16 +1316,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1653,7 +1653,7 @@
   <dimension ref="B4:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
